--- a/static/saved/ahp_WASPAS_full_ranking.xlsx
+++ b/static/saved/ahp_WASPAS_full_ranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>model_name</t>
   </si>
@@ -22,388 +22,388 @@
     <t>score</t>
   </si>
   <si>
+    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
+  </si>
+  <si>
+    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
+  </si>
+  <si>
+    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
+  </si>
+  <si>
+    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
+  </si>
+  <si>
+    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 64GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S8 64GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Lavender</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
+  </si>
+  <si>
+    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
+  </si>
+  <si>
+    <t>Galaxy M10S M107F 3/32GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 4/32GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
+  </si>
+  <si>
+    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S7 G930F 32GB (Gold)</t>
+  </si>
+  <si>
+    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
+  </si>
+  <si>
+    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
+  </si>
+  <si>
     <t>G920F Galaxy S6 32GB (White Pearl)</t>
   </si>
   <si>
-    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
-  </si>
-  <si>
-    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A8+ 2018 32GB Gold (SM-A730FZDD)</t>
+  </si>
+  <si>
+    <t>X Cover 4s G398F (SM-G398FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
   </si>
   <si>
     <t>Galaxy A2 Core 2019 SM-A260 1/16GB Blue</t>
   </si>
   <si>
-    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
-  </si>
-  <si>
-    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
-  </si>
-  <si>
-    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
-  </si>
-  <si>
-    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Lavender</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 4/32GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A8+ 2018 32GB Gold (SM-A730FZDD)</t>
-  </si>
-  <si>
-    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
-  </si>
-  <si>
-    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
-  </si>
-  <si>
     <t>Galaxy Fold 12/256GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M10S M107F 3/32GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
-  </si>
-  <si>
-    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 64GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S7 G930F 32GB (Gold)</t>
-  </si>
-  <si>
-    <t>Galaxy S8 64GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
-  </si>
-  <si>
-    <t>X Cover 4s G398F (SM-G398FZKD)</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6166857541647379</v>
+        <v>0.599644641606577</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6102503151647122</v>
+        <v>0.5841403508407692</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5869112206888527</v>
+        <v>0.5740134994605797</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5837742838500535</v>
+        <v>0.5654869145354212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5803946416619182</v>
+        <v>0.5596761026174065</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5761168286307777</v>
+        <v>0.5593860375908669</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -844,423 +844,423 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.5725075892606097</v>
+        <v>0.5585845923831394</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5701918079648116</v>
+        <v>0.5537102267852972</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.565589401091004</v>
+        <v>0.5531523805401238</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.5593860375908669</v>
+        <v>0.546601821679919</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5531523805401238</v>
+        <v>0.5405843753521784</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5458569017572847</v>
+        <v>0.5374295980296853</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5427604801936912</v>
+        <v>0.5324317011423884</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.5423693883943521</v>
+        <v>0.5289956944012704</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5384211703651782</v>
+        <v>0.5268118576751182</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.5362045182992546</v>
+        <v>0.525656856496815</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.5350269706465989</v>
+        <v>0.5250663840325931</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.5313818052669509</v>
+        <v>0.5235886876205733</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.5313136459614621</v>
+        <v>0.5230404485866817</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0.5283986126361363</v>
+        <v>0.5192582197939035</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5259138810700517</v>
+        <v>0.5160647937093543</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.5217015595894051</v>
+        <v>0.5144256529336477</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0.5206323767955272</v>
+        <v>0.5122173784968618</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>0.5196020832823136</v>
+        <v>0.5099634850841969</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>0.5182602414630516</v>
+        <v>0.5093846919571651</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>0.5171853294891089</v>
+        <v>0.5082659345660288</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>0.5149892892966434</v>
+        <v>0.5056405654161686</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>0.5144322175625631</v>
+        <v>0.4983334604229913</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>0.5111192378939835</v>
+        <v>0.4959652344139938</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>0.5077236452679548</v>
+        <v>0.4949262766039466</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5051958589961243</v>
+        <v>0.4946108561905607</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>0.5032577560970642</v>
+        <v>0.4944655689379824</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>0.5019545355665638</v>
+        <v>0.4943750045630007</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>0.4988914018022142</v>
+        <v>0.4935980806297577</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>0.4976158383206861</v>
+        <v>0.4933455861718244</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>0.4967187749089278</v>
+        <v>0.4931213641000742</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>0.4952509492412581</v>
+        <v>0.4930582324006422</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>0.4922281408293712</v>
+        <v>0.4925101452632259</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>0.4886286252675391</v>
+        <v>0.4903835325113196</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>0.4855487864452599</v>
+        <v>0.4903798189759636</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>0.4853485322831803</v>
+        <v>0.489236544624075</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>0.4847645932552003</v>
+        <v>0.4854890239715003</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>0.4827924023341351</v>
+        <v>0.4819012202110144</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>0.4819742840141196</v>
+        <v>0.4799178079893556</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>0.4808689507037222</v>
+        <v>0.4786164921721092</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>0.4781050275661985</v>
+        <v>0.478412022132819</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>0.4764531113417481</v>
+        <v>0.4739142421305811</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>0.4749265516818761</v>
+        <v>0.4736243288482407</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>0.4746024119287093</v>
+        <v>0.4735610069250579</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>0.4741857428554924</v>
+        <v>0.472744000053965</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>0.4732686742401443</v>
+        <v>0.4719908030211176</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>0.4726475893295137</v>
+        <v>0.4713133289849802</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>0.4717813435983794</v>
+        <v>0.4712236032863729</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4699814907744385</v>
+        <v>0.470638919860215</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B58">
-        <v>0.4692301111950216</v>
+        <v>0.4694115189417241</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>0.46731922431025</v>
+        <v>0.4687713253608654</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>0.4660942925949204</v>
+        <v>0.4687371098169589</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>0.465507931178664</v>
+        <v>0.4677715392749543</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>0.4614271032206556</v>
+        <v>0.4670173878622161</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1268,47 +1268,47 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.4608164037909145</v>
+        <v>0.4668695153176092</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>0.4593836036700816</v>
+        <v>0.4651625669326859</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>0.4572564867546816</v>
+        <v>0.4651067354272184</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>0.4561999604530216</v>
+        <v>0.4633590330124226</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>0.4549372492235289</v>
+        <v>0.4626846238876574</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B68">
-        <v>0.4541052345064079</v>
+        <v>0.4608170293883078</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>61</v>
       </c>
       <c r="B69">
-        <v>0.4515004809084333</v>
+        <v>0.4605440931327928</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>62</v>
       </c>
       <c r="B70">
-        <v>0.4498304441295948</v>
+        <v>0.4588590112683713</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1332,15 +1332,15 @@
         <v>63</v>
       </c>
       <c r="B71">
-        <v>0.4496458047284458</v>
+        <v>0.4581839981159764</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72">
-        <v>0.4491927854179612</v>
+        <v>0.4529605771248365</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1348,23 +1348,23 @@
         <v>64</v>
       </c>
       <c r="B73">
-        <v>0.4475222332507407</v>
+        <v>0.452894177423218</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>0.4433907762407255</v>
+        <v>0.4528568218748726</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75">
-        <v>0.4416221669426698</v>
+        <v>0.4527904221732541</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>65</v>
       </c>
       <c r="B76">
-        <v>0.4403672869887814</v>
+        <v>0.4522829963088839</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>66</v>
       </c>
       <c r="B77">
-        <v>0.4381660281726695</v>
+        <v>0.451239625034367</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>67</v>
       </c>
       <c r="B78">
-        <v>0.4372044180586678</v>
+        <v>0.4505458763275572</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>68</v>
       </c>
       <c r="B79">
-        <v>0.4363178038638766</v>
+        <v>0.4498733957666891</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>69</v>
       </c>
       <c r="B80">
-        <v>0.4349113409155824</v>
+        <v>0.4474948990820942</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>70</v>
       </c>
       <c r="B81">
-        <v>0.4324189432320986</v>
+        <v>0.4472149492283355</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1420,494 +1420,782 @@
         <v>71</v>
       </c>
       <c r="B82">
-        <v>0.431610730348474</v>
+        <v>0.44615509539824</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83">
-        <v>0.4303067627182823</v>
+        <v>0.4440281127739807</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84">
-        <v>0.4289763711919347</v>
+        <v>0.4435612141491432</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85">
-        <v>0.4286955312499068</v>
+        <v>0.4422954866136743</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86">
-        <v>0.4261049767973195</v>
+        <v>0.4371078487101637</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B87">
-        <v>0.4246308022017563</v>
+        <v>0.4357525767863</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B88">
-        <v>0.4238385151266126</v>
+        <v>0.4336255941620406</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B89">
-        <v>0.4232149834353988</v>
+        <v>0.4331586955372032</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B90">
-        <v>0.4218440478928436</v>
+        <v>0.4328404668999398</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B91">
-        <v>0.4215014187106901</v>
+        <v>0.4324614855719497</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B92">
-        <v>0.4177821366395421</v>
+        <v>0.4307134842756805</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>0.4167331226209296</v>
+        <v>0.430246585650843</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>0.411803735637544</v>
+        <v>0.4297246865393632</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B95">
-        <v>0.4102387505440449</v>
+        <v>0.4285020835598062</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B96">
-        <v>0.409189475095933</v>
+        <v>0.427549581584033</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B97">
-        <v>0.4084951976056395</v>
+        <v>0.4266751037391067</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B98">
-        <v>0.4081945492591454</v>
+        <v>0.4258290156455151</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B99">
-        <v>0.4074613357844649</v>
+        <v>0.4258088646844955</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B100">
-        <v>0.4068693028423203</v>
+        <v>0.4244791356369574</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B101">
-        <v>0.4041913610304732</v>
+        <v>0.4236818820602362</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>0.4019289335410351</v>
+        <v>0.4232149834353988</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B103">
-        <v>0.3932235338898238</v>
+        <v>0.4208427790670351</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B104">
-        <v>0.3904740012080808</v>
+        <v>0.4195260719140785</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B105">
-        <v>0.3889442768031124</v>
+        <v>0.4171494610678415</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B106">
-        <v>0.3859464387889805</v>
+        <v>0.4150224784435822</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B107">
-        <v>0.3782813858276701</v>
+        <v>0.4147506376276693</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B108">
-        <v>0.3780787176309902</v>
+        <v>0.4145555798187447</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B109">
-        <v>0.3737757852483145</v>
+        <v>0.4139971621202383</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B110">
-        <v>0.3693846955374787</v>
+        <v>0.4139003425132311</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B111">
-        <v>0.3633136172788736</v>
+        <v>0.41262365500341</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B112">
-        <v>0.3595807659899677</v>
+        <v>0.4121567563785725</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B113">
-        <v>0.3552960710450543</v>
+        <v>0.4105534638927346</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B114">
-        <v>0.3449513088731198</v>
+        <v>0.4100858664871787</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B115">
-        <v>0.3423198647637027</v>
+        <v>0.4055531544048028</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B116">
-        <v>0.3397647738247219</v>
+        <v>0.4035622835634221</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B117">
-        <v>0.3360522433265324</v>
+        <v>0.401203275390566</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>0.3248561376694381</v>
+        <v>0.4009579076233278</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>0.3204322731588179</v>
+        <v>0.400866910736857</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>0.2988140370133651</v>
+        <v>0.3967683204421235</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B121">
-        <v>0.2225787261756771</v>
+        <v>0.395369724606036</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B122">
-        <v>0.2225141873894599</v>
+        <v>0.3947660441537947</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B123">
-        <v>0.222206884146562</v>
+        <v>0.3935484506312986</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B124">
-        <v>0.2198116109724126</v>
+        <v>0.3897270611798276</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B125">
-        <v>0.2198022171951067</v>
+        <v>0.3828014407644175</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B126">
-        <v>0.219690789872777</v>
+        <v>0.3810376015150316</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B127">
-        <v>0.2178042386712988</v>
+        <v>0.3785004088107715</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B128">
-        <v>0.2147421847393271</v>
+        <v>0.3777985733672171</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B129">
-        <v>0.2118048677305271</v>
+        <v>0.3767365695613857</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B130">
-        <v>0.2101842438333165</v>
+        <v>0.3764286818241243</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B131">
-        <v>0.2092053395982051</v>
+        <v>0.3748000349593557</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B132">
-        <v>0.2084204045839307</v>
+        <v>0.3630058863507748</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B133">
-        <v>0.2064686785074196</v>
+        <v>0.361293924726371</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B134">
-        <v>0.2040361257504489</v>
+        <v>0.3589531083112083</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B135">
-        <v>0.2023241641260451</v>
+        <v>0.3577621255328595</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B136">
-        <v>0.2022989625781448</v>
+        <v>0.3572411466868045</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B137">
-        <v>0.2014361572532704</v>
+        <v>0.3455053543739323</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B138">
-        <v>0.1997721449351661</v>
+        <v>0.3379027347866897</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B139">
-        <v>0.1828254950597515</v>
+        <v>0.3374358361618523</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B140">
-        <v>0.1823585964349141</v>
+        <v>0.3355637290905718</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B141">
-        <v>0.1804040173740034</v>
+        <v>0.3350968304657344</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B142">
-        <v>0.179937118749166</v>
+        <v>0.3328275517628765</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143">
+        <v>0.3209207873947785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144">
+        <v>0.3173515054613733</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145">
+        <v>0.3163766566155767</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146">
+        <v>0.311232093600793</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147">
+        <v>0.3025585768562987</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148">
+        <v>0.3020916782314613</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B149">
+        <v>0.3000740914425126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150">
+        <v>0.2996071928176752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151">
+        <v>0.2825073940982331</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>113</v>
+      </c>
+      <c r="B152">
+        <v>0.2639705219081835</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>114</v>
+      </c>
+      <c r="B153">
+        <v>0.2586667035099018</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154">
+        <v>0.2472557608575466</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155">
+        <v>0.2412334074161115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>117</v>
+      </c>
+      <c r="B156">
+        <v>0.2383051686529151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157">
+        <v>0.2355308650410277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>119</v>
+      </c>
+      <c r="B158">
+        <v>0.2340981218568516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159">
+        <v>0.2340981218568516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>119</v>
+      </c>
+      <c r="B160">
+        <v>0.2340981218568516</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161">
+        <v>0.2328011812323033</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>119</v>
+      </c>
+      <c r="B162">
+        <v>0.2328011812323033</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163">
+        <v>0.2328011812323033</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164">
+        <v>0.2315042406077549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>119</v>
+      </c>
+      <c r="B165">
+        <v>0.2315042406077549</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166">
+        <v>0.2315042406077549</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167">
+        <v>0.2298657707194021</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168">
+        <v>0.2297065881276526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169">
+        <v>0.2256372027475931</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170">
+        <v>0.2231837178622482</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>124</v>
+      </c>
+      <c r="B171">
+        <v>0.2198022171951067</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172">
+        <v>0.219690789872777</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173">
+        <v>0.2178042386712988</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174">
+        <v>0.1997721449351661</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175">
+        <v>0.1804040173740034</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176">
+        <v>0.1804040173740034</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177">
+        <v>0.179937118749166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178">
+        <v>0.179937118749166</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>129</v>
       </c>
-      <c r="B143">
+      <c r="B179">
         <v>0.1395092244569572</v>
       </c>
     </row>
